--- a/Python/test.xlsx
+++ b/Python/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsb18103\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsb18103\Documents\GitHub\OffshoreWindFarms\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Timestamp</t>
   </si>
@@ -210,6 +210,27 @@
   </si>
   <si>
     <t>Azul: Stained Glass of Sintra, Scythe</t>
+  </si>
+  <si>
+    <t>Klaudia Ż</t>
+  </si>
+  <si>
+    <t>Catacombs, Cockroach Poker, Coup + Reformation expansion, Deception: Murder in Hong Kong, Glux, Mystic Vale + 1 expansion, Obscurio, Root, Saboteur, Wingspan</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Cryptid, Deception: Murder in Hong Kong, Game of Life, Junk-Art, Mystic Vale + 1 expansion, Small World Underground, Sub Terra, Wingspan</t>
+  </si>
+  <si>
+    <t>11/18/2019 0:05:19</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Azul: Stained Glass of Sintra, Cryptid, Deception: Murder in Hong Kong, Root, Secret Hitler</t>
   </si>
 </sst>
 </file>
@@ -266,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -275,6 +296,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -557,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,6 +933,39 @@
         <v>61</v>
       </c>
     </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>43688.728032407409</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>43810.627337962964</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
